--- a/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>20884</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13874</v>
+        <v>13305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32741</v>
+        <v>32691</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03033937986687013</v>
+        <v>0.03033937986687014</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02015480444607879</v>
+        <v>0.01932894431169538</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0475642332351914</v>
+        <v>0.04749114999127321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -762,19 +762,19 @@
         <v>22939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16781</v>
+        <v>16315</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31974</v>
+        <v>31965</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03142916083433463</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02299211102158892</v>
+        <v>0.02235403382814709</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04380760786198679</v>
+        <v>0.04379605488291136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -783,19 +783,19 @@
         <v>43823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33122</v>
+        <v>33364</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56648</v>
+        <v>56924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03090021728524421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02335495103889635</v>
+        <v>0.02352527690973376</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03994340572275004</v>
+        <v>0.0401377476800073</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>39492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29569</v>
+        <v>28653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53037</v>
+        <v>52694</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05737164151707633</v>
+        <v>0.05737164151707634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04295595704864918</v>
+        <v>0.04162482470000247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07704861119775394</v>
+        <v>0.07655063035179034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>112</v>
@@ -833,19 +833,19 @@
         <v>61263</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50925</v>
+        <v>50011</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73452</v>
+        <v>72319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08393811475659681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06977331060334448</v>
+        <v>0.06852094692458234</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1006382400280729</v>
+        <v>0.09908539024882947</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>159</v>
@@ -854,19 +854,19 @@
         <v>100755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85666</v>
+        <v>85376</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119225</v>
+        <v>118398</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07104362947775988</v>
+        <v>0.07104362947775987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06040369499716013</v>
+        <v>0.060199150823423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08406679679427939</v>
+        <v>0.08348382737410896</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>183076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>161570</v>
+        <v>162166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>211596</v>
+        <v>211004</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.265960519993048</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2347192579879455</v>
+        <v>0.2355845084146757</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3073931038980597</v>
+        <v>0.3065338206506065</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>443</v>
@@ -904,19 +904,19 @@
         <v>243295</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>222682</v>
+        <v>223094</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>264303</v>
+        <v>263134</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3333438460345331</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3051011530119528</v>
+        <v>0.3056656145393091</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3621271317084169</v>
+        <v>0.3605262780738473</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>657</v>
@@ -925,19 +925,19 @@
         <v>426371</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>394027</v>
+        <v>394935</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>458737</v>
+        <v>455843</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3006382137194219</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2778325779183762</v>
+        <v>0.2784728345429733</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3234604814838973</v>
+        <v>0.3214197433892777</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>444904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>416482</v>
+        <v>416414</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>468128</v>
+        <v>469752</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6463284586230055</v>
+        <v>0.6463284586230057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6050392687349885</v>
+        <v>0.6049400663476485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6800673186742406</v>
+        <v>0.6824261829010146</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>640</v>
@@ -975,19 +975,19 @@
         <v>402365</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>377957</v>
+        <v>381017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>424273</v>
+        <v>425296</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5512888783745354</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5178465300270658</v>
+        <v>0.5220400030445256</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5813057584320386</v>
+        <v>0.5827074432727332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1082</v>
@@ -996,19 +996,19 @@
         <v>847269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>811413</v>
+        <v>815382</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>882740</v>
+        <v>881551</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.597417939517574</v>
+        <v>0.5974179395175739</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.572135245506042</v>
+        <v>0.574934466111826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6224286587361809</v>
+        <v>0.6215907447297585</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>20969</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12018</v>
+        <v>13463</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29905</v>
+        <v>31654</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02003817162351383</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01148431869225043</v>
+        <v>0.01286502610213129</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02857721155327953</v>
+        <v>0.03024898194725258</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>57</v>
@@ -1121,19 +1121,19 @@
         <v>39631</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31144</v>
+        <v>30193</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55801</v>
+        <v>53366</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03709214194647505</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02914911118777778</v>
+        <v>0.02825885056749649</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05222635814768693</v>
+        <v>0.0499471716877773</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -1142,19 +1142,19 @@
         <v>60600</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47639</v>
+        <v>47358</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78423</v>
+        <v>78452</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02865378383917156</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02252532821668416</v>
+        <v>0.0223924615614221</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03708102563155963</v>
+        <v>0.03709491655177521</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>51023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38337</v>
+        <v>39032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65041</v>
+        <v>66373</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04875729095745228</v>
+        <v>0.04875729095745229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03663514289113967</v>
+        <v>0.03729930960186656</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06215333475850855</v>
+        <v>0.06342597672509795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>153</v>
@@ -1192,19 +1192,19 @@
         <v>97862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83310</v>
+        <v>84309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>116117</v>
+        <v>116223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0915929562119015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07797370229634007</v>
+        <v>0.07890827033421052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1086784730065209</v>
+        <v>0.1087776936616162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>213</v>
@@ -1213,19 +1213,19 @@
         <v>148884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128673</v>
+        <v>130444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169069</v>
+        <v>169264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07039773443442769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06084110110271673</v>
+        <v>0.06167844809614385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07994180806460625</v>
+        <v>0.08003370890095339</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>341036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311411</v>
+        <v>310280</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>378554</v>
+        <v>375052</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3258944209862317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2975844400271648</v>
+        <v>0.296503926404885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3617469811137889</v>
+        <v>0.3583999307998169</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>578</v>
@@ -1263,19 +1263,19 @@
         <v>398541</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>372390</v>
+        <v>368827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>428389</v>
+        <v>426817</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3730110078782662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3485356388016925</v>
+        <v>0.3452008831307047</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4009469058409998</v>
+        <v>0.3994758265478258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>917</v>
@@ -1284,19 +1284,19 @@
         <v>739577</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>701484</v>
+        <v>698593</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>787041</v>
+        <v>783739</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3496975726218695</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3316859766857218</v>
+        <v>0.3303187876570552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3721404350152371</v>
+        <v>0.3705791800684798</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>633433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>599740</v>
+        <v>598432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>669213</v>
+        <v>667118</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6053101164328021</v>
+        <v>0.605310116432802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5731122772263744</v>
+        <v>0.571863003968194</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6395012861042877</v>
+        <v>0.6374994867470311</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>723</v>
@@ -1334,19 +1334,19 @@
         <v>532409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>502868</v>
+        <v>504188</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>559490</v>
+        <v>563693</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4983038939633573</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4706545680036808</v>
+        <v>0.4718903020459586</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5236494456862967</v>
+        <v>0.5275836237105211</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1263</v>
@@ -1355,19 +1355,19 @@
         <v>1165843</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1116836</v>
+        <v>1118546</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1211916</v>
+        <v>1209685</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5512509091045313</v>
+        <v>0.5512509091045315</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5280790468243972</v>
+        <v>0.5288875321126287</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.573035873944124</v>
+        <v>0.5719810562655151</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>13860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7707</v>
+        <v>7011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23361</v>
+        <v>23500</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01730737687060084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009623433755163112</v>
+        <v>0.008754252574738058</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0291713614234771</v>
+        <v>0.02934504626595825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1480,19 +1480,19 @@
         <v>14839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9393</v>
+        <v>9099</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22016</v>
+        <v>22264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01831155500321273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01159109656355514</v>
+        <v>0.0112287789987449</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02716852441640661</v>
+        <v>0.02747424220252689</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1501,19 +1501,19 @@
         <v>28699</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19420</v>
+        <v>19951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40284</v>
+        <v>38972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01781243394465674</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01205346397903933</v>
+        <v>0.01238253271063067</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02500263161382547</v>
+        <v>0.0241884812039107</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>42098</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30374</v>
+        <v>31546</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>58286</v>
+        <v>58703</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05256765651239514</v>
+        <v>0.05256765651239513</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03792852081200609</v>
+        <v>0.03939180257258086</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07278192902238152</v>
+        <v>0.07330242638326429</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>71</v>
@@ -1551,19 +1551,19 @@
         <v>55560</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>43273</v>
+        <v>42779</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>72293</v>
+        <v>69553</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.06856286663635741</v>
+        <v>0.06856286663635743</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05339971950790388</v>
+        <v>0.05279000660117992</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08921173105284309</v>
+        <v>0.08583103181970554</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>112</v>
@@ -1572,19 +1572,19 @@
         <v>97658</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>78230</v>
+        <v>81418</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>118235</v>
+        <v>120512</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06061253795499878</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04855425904163246</v>
+        <v>0.05053281688613734</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07338416689302323</v>
+        <v>0.0747970452542441</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>212827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186439</v>
+        <v>184126</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242891</v>
+        <v>241763</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2657588790086374</v>
+        <v>0.2657588790086373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2328073459574311</v>
+        <v>0.2299195396718216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3033002644868995</v>
+        <v>0.3018910776938066</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>322</v>
@@ -1622,19 +1622,19 @@
         <v>247219</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224624</v>
+        <v>224637</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>271897</v>
+        <v>274228</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3050761724635613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2771931192180569</v>
+        <v>0.2772082253215566</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3355289956425929</v>
+        <v>0.3384052004525331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>510</v>
@@ -1643,19 +1643,19 @@
         <v>460047</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>426475</v>
+        <v>423962</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>499323</v>
+        <v>501477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2855337342332692</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2646972507301915</v>
+        <v>0.2631374380818728</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3099111305846338</v>
+        <v>0.3112483543903417</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>532043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>501524</v>
+        <v>502107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>560522</v>
+        <v>562877</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6643660876083667</v>
+        <v>0.6643660876083666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6262572689708626</v>
+        <v>0.6269845778581027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6999278306992363</v>
+        <v>0.7028688175324197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>631</v>
@@ -1693,19 +1693,19 @@
         <v>492735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>464599</v>
+        <v>465388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>515913</v>
+        <v>516191</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6080494058968685</v>
+        <v>0.6080494058968686</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5733290511440345</v>
+        <v>0.5743034030585009</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6366518214863846</v>
+        <v>0.6369957179051238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1063</v>
@@ -1714,19 +1714,19 @@
         <v>1024778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>980753</v>
+        <v>982953</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1062101</v>
+        <v>1063932</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6360412938670752</v>
+        <v>0.6360412938670753</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6087168398095205</v>
+        <v>0.6100821410348846</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6592064278256855</v>
+        <v>0.6603431448417166</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>20993</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13519</v>
+        <v>14147</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30007</v>
+        <v>32227</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02124482612458931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01368121168382173</v>
+        <v>0.01431664810661501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03036681655730827</v>
+        <v>0.03261328569029635</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -1839,19 +1839,19 @@
         <v>36202</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27530</v>
+        <v>27941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46991</v>
+        <v>46969</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03244461977999284</v>
+        <v>0.03244461977999285</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02467255634917871</v>
+        <v>0.02504134066009674</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04211394129180196</v>
+        <v>0.04209428675838657</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1860,19 +1860,19 @@
         <v>57195</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45886</v>
+        <v>46362</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71826</v>
+        <v>71298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02718448801308936</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02180941917626952</v>
+        <v>0.02203580745782259</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03413883530990571</v>
+        <v>0.03388767575121706</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>66633</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52660</v>
+        <v>52154</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84044</v>
+        <v>83063</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06743241264344679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05329176948781298</v>
+        <v>0.05277995048620894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0850520877358093</v>
+        <v>0.08405912080426563</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1910,19 +1910,19 @@
         <v>96763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81075</v>
+        <v>82061</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>114374</v>
+        <v>114183</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08672026308248953</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0726604494642534</v>
+        <v>0.0735446344108214</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1025038925937974</v>
+        <v>0.1023323036575152</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>215</v>
@@ -1931,19 +1931,19 @@
         <v>163396</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>141112</v>
+        <v>143085</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>186481</v>
+        <v>188100</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07766146807864208</v>
+        <v>0.07766146807864206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06707019974590127</v>
+        <v>0.0680077598680919</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08863345130242212</v>
+        <v>0.08940339880355824</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>320402</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>292648</v>
+        <v>290487</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>350479</v>
+        <v>352111</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3242441382040235</v>
+        <v>0.3242441382040236</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2961578143474152</v>
+        <v>0.2939707405539839</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.354682744502709</v>
+        <v>0.3563335306852687</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>591</v>
@@ -1981,19 +1981,19 @@
         <v>424086</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>392940</v>
+        <v>394245</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>452721</v>
+        <v>453623</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.380072896017466</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3521585973530038</v>
+        <v>0.3533281626747362</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4057358638992393</v>
+        <v>0.4065438945923376</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>938</v>
@@ -2002,19 +2002,19 @@
         <v>744488</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>703750</v>
+        <v>701780</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>789641</v>
+        <v>786566</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3538521787867012</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3344897940628664</v>
+        <v>0.333553435538079</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3753133462839143</v>
+        <v>0.373851845429468</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>580121</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>550593</v>
+        <v>546139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>613868</v>
+        <v>611744</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5870786230279403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5571959607613861</v>
+        <v>0.5526887285166553</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6212299170356241</v>
+        <v>0.6190807048812605</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>768</v>
@@ -2052,19 +2052,19 @@
         <v>558752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>531123</v>
+        <v>529099</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>591559</v>
+        <v>591441</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5007622211200515</v>
+        <v>0.5007622211200516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4760007655240953</v>
+        <v>0.4741871984158512</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5301640892552344</v>
+        <v>0.530059044759863</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1326</v>
@@ -2073,19 +2073,19 @@
         <v>1138873</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1091912</v>
+        <v>1094770</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1185244</v>
+        <v>1184179</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5413018651215674</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5189812861847168</v>
+        <v>0.5203398634489259</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5633418458357599</v>
+        <v>0.5628357054105029</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>76707</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61340</v>
+        <v>60325</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>96379</v>
+        <v>96073</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.021768225659807</v>
+        <v>0.02176822565980699</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01740730077840002</v>
+        <v>0.01711920089921559</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02735086236901489</v>
+        <v>0.02726412247076969</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>174</v>
@@ -2198,19 +2198,19 @@
         <v>113610</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>96244</v>
+        <v>96904</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>131604</v>
+        <v>132521</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03050385522999362</v>
+        <v>0.03050385522999361</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02584102895614257</v>
+        <v>0.02601827775070275</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0353349890185466</v>
+        <v>0.03558113503070091</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>258</v>
@@ -2219,19 +2219,19 @@
         <v>190317</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>167147</v>
+        <v>168581</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>219369</v>
+        <v>217187</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02625696219998096</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02306031459954526</v>
+        <v>0.02325812406849624</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03026501700377845</v>
+        <v>0.02996404037596997</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>199246</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>174630</v>
+        <v>173777</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>229455</v>
+        <v>228138</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05654293014033368</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04955741282481903</v>
+        <v>0.04931520321324125</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06511580968871396</v>
+        <v>0.06474214559828742</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>476</v>
@@ -2269,19 +2269,19 @@
         <v>311448</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>286802</v>
+        <v>284308</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>342653</v>
+        <v>341370</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08362228791299657</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07700495680948517</v>
+        <v>0.07633532916179922</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09200079841078757</v>
+        <v>0.09165613363545722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>699</v>
@@ -2290,19 +2290,19 @@
         <v>510694</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>471988</v>
+        <v>474049</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>550489</v>
+        <v>552048</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0704574513253247</v>
+        <v>0.07045745132532472</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06511751373928927</v>
+        <v>0.06540180928859368</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07594785385924008</v>
+        <v>0.07616293554929296</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1057340</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>996500</v>
+        <v>998683</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1110127</v>
+        <v>1112626</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3000572612995165</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2827918361329289</v>
+        <v>0.2834113918745051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3150375118793523</v>
+        <v>0.3157466447871872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1934</v>
@@ -2340,19 +2340,19 @@
         <v>1313142</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1265785</v>
+        <v>1262481</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1368237</v>
+        <v>1365129</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3525723280043298</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3398572822452143</v>
+        <v>0.3389701641297423</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3673652683705884</v>
+        <v>0.3665306915175859</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3022</v>
@@ -2361,19 +2361,19 @@
         <v>2370482</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2292133</v>
+        <v>2288761</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2448807</v>
+        <v>2446599</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3270417272654346</v>
+        <v>0.3270417272654347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3162324972546176</v>
+        <v>0.3157671941514634</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3378477955079299</v>
+        <v>0.3375432454526368</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2190502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2136071</v>
+        <v>2129460</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2261042</v>
+        <v>2250300</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6216315829003429</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6061851068894344</v>
+        <v>0.604308806360665</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6416498857725189</v>
+        <v>0.6386014759992942</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2762</v>
@@ -2411,19 +2411,19 @@
         <v>1986260</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1930411</v>
+        <v>1930847</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2041182</v>
+        <v>2037804</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.53330152885268</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5183061484944959</v>
+        <v>0.5184233648494789</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5480476985142229</v>
+        <v>0.5471408953723509</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4734</v>
@@ -2432,19 +2432,19 @@
         <v>4176762</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4102518</v>
+        <v>4090379</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4259032</v>
+        <v>4263511</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.5762438592092596</v>
+        <v>0.5762438592092598</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5660008824546191</v>
+        <v>0.5643261158011235</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5875942071669676</v>
+        <v>0.5882121465631212</v>
       </c>
     </row>
     <row r="28">
